--- a/spreadsheet/macrofree/eh_security_checklist.en.xlsx
+++ b/spreadsheet/macrofree/eh_security_checklist.en.xlsx
@@ -6265,7 +6265,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Not required</t>
+          <t>Risk accepted</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
